--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H2">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I2">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J2">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>1745.543348225821</v>
+        <v>3221.085905604841</v>
       </c>
       <c r="R2">
-        <v>1745.543348225821</v>
+        <v>28989.77315044356</v>
       </c>
       <c r="S2">
-        <v>0.01913035839699636</v>
+        <v>0.02812699543508753</v>
       </c>
       <c r="T2">
-        <v>0.01913035839699636</v>
+        <v>0.03183858401823567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H3">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I3">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J3">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>15224.40225113217</v>
+        <v>21212.90018121855</v>
       </c>
       <c r="R3">
-        <v>15224.40225113217</v>
+        <v>190916.1016309669</v>
       </c>
       <c r="S3">
-        <v>0.1668524999623887</v>
+        <v>0.1852341614124273</v>
       </c>
       <c r="T3">
-        <v>0.1668524999623887</v>
+        <v>0.2096773338193078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H4">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I4">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J4">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>12426.59829829857</v>
+        <v>17814.82623609864</v>
       </c>
       <c r="R4">
-        <v>12426.59829829857</v>
+        <v>160333.4361248878</v>
       </c>
       <c r="S4">
-        <v>0.1361898456108706</v>
+        <v>0.1555616804096177</v>
       </c>
       <c r="T4">
-        <v>0.1361898456108706</v>
+        <v>0.1760893246905782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H5">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I5">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J5">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>13725.47701092668</v>
+        <v>18339.77752047672</v>
       </c>
       <c r="R5">
-        <v>13725.47701092668</v>
+        <v>165057.9976842905</v>
       </c>
       <c r="S5">
-        <v>0.1504249634680471</v>
+        <v>0.160145632161309</v>
       </c>
       <c r="T5">
-        <v>0.1504249634680471</v>
+        <v>0.1812781666100282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H6">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I6">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J6">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>5409.937970450929</v>
+        <v>7868.161113314985</v>
       </c>
       <c r="R6">
-        <v>5409.937970450929</v>
+        <v>47208.96667988991</v>
       </c>
       <c r="S6">
-        <v>0.05929045095639549</v>
+        <v>0.06870593899146185</v>
       </c>
       <c r="T6">
-        <v>0.05929045095639549</v>
+        <v>0.0518481688094467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H7">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J7">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>576.4177155220951</v>
+        <v>837.6476900616876</v>
       </c>
       <c r="R7">
-        <v>576.4177155220951</v>
+        <v>7538.829210555187</v>
       </c>
       <c r="S7">
-        <v>0.006317275073989741</v>
+        <v>0.00731446271382589</v>
       </c>
       <c r="T7">
-        <v>0.006317275073989741</v>
+        <v>0.008279666280028068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H8">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J8">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>5027.440409719202</v>
+        <v>5516.443012397804</v>
       </c>
       <c r="R8">
-        <v>5027.440409719202</v>
+        <v>49647.98711158023</v>
       </c>
       <c r="S8">
-        <v>0.05509845227001959</v>
+        <v>0.04817039097207752</v>
       </c>
       <c r="T8">
-        <v>0.05509845227001959</v>
+        <v>0.05452687058933205</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H9">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J9">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>4103.542550287528</v>
+        <v>4632.769346372427</v>
       </c>
       <c r="R9">
-        <v>4103.542550287528</v>
+        <v>41694.92411735185</v>
       </c>
       <c r="S9">
-        <v>0.04497295341540212</v>
+        <v>0.04045402267306574</v>
       </c>
       <c r="T9">
-        <v>0.04497295341540212</v>
+        <v>0.04579226397375089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H10">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J10">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>4532.461546217567</v>
+        <v>4769.2836287109</v>
       </c>
       <c r="R10">
-        <v>4532.461546217567</v>
+        <v>42923.5526583981</v>
       </c>
       <c r="S10">
-        <v>0.04967370984391559</v>
+        <v>0.0416460854458956</v>
       </c>
       <c r="T10">
-        <v>0.04967370984391559</v>
+        <v>0.04714162924226473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H11">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J11">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>1786.483325786842</v>
+        <v>2046.125801902174</v>
       </c>
       <c r="R11">
-        <v>1786.483325786842</v>
+        <v>12276.75481141304</v>
       </c>
       <c r="S11">
-        <v>0.01957904186527194</v>
+        <v>0.0178670711605596</v>
       </c>
       <c r="T11">
-        <v>0.01957904186527194</v>
+        <v>0.0134831855187688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H12">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I12">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J12">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>3.792588930320108</v>
+        <v>7.002227731049779</v>
       </c>
       <c r="R12">
-        <v>3.792588930320108</v>
+        <v>63.02004957944801</v>
       </c>
       <c r="S12">
-        <v>4.156504366577237E-05</v>
+        <v>6.11444814570066E-05</v>
       </c>
       <c r="T12">
-        <v>4.156504366577237E-05</v>
+        <v>6.921299911372134E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H13">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I13">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J13">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>33.07846780606826</v>
+        <v>46.11412494353445</v>
       </c>
       <c r="R13">
-        <v>33.07846780606826</v>
+        <v>415.02712449181</v>
       </c>
       <c r="S13">
-        <v>0.0003625249095055565</v>
+        <v>0.0004026753150305363</v>
       </c>
       <c r="T13">
-        <v>0.0003625249095055565</v>
+        <v>0.0004558116375869974</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H14">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I14">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J14">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>26.99960398896079</v>
+        <v>38.72714790908978</v>
       </c>
       <c r="R14">
-        <v>26.99960398896079</v>
+        <v>348.544331181808</v>
       </c>
       <c r="S14">
-        <v>0.0002959033365804282</v>
+        <v>0.0003381711461211055</v>
       </c>
       <c r="T14">
-        <v>0.0002959033365804282</v>
+        <v>0.0003827956126052667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H15">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I15">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J15">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>29.82171266494912</v>
+        <v>39.86832468879822</v>
       </c>
       <c r="R15">
-        <v>29.82171266494912</v>
+        <v>358.814922199184</v>
       </c>
       <c r="S15">
-        <v>0.000326832359604579</v>
+        <v>0.0003481360694463839</v>
       </c>
       <c r="T15">
-        <v>0.000326832359604579</v>
+        <v>0.0003940754895924606</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H16">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I16">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J16">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>11.75431757756397</v>
+        <v>17.10437335562967</v>
       </c>
       <c r="R16">
-        <v>11.75431757756397</v>
+        <v>102.626240133778</v>
       </c>
       <c r="S16">
-        <v>0.0001288219557534713</v>
+        <v>0.0001493579014631995</v>
       </c>
       <c r="T16">
-        <v>0.0001288219557534713</v>
+        <v>0.0001127112706959877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H17">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I17">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J17">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>4.346694141282327</v>
+        <v>7.172865323491112</v>
       </c>
       <c r="R17">
-        <v>4.346694141282327</v>
+        <v>64.55578791142</v>
       </c>
       <c r="S17">
-        <v>4.763778387364211E-05</v>
+        <v>6.263451398774422E-05</v>
       </c>
       <c r="T17">
-        <v>4.763778387364211E-05</v>
+        <v>7.089965370252302E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H18">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I18">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J18">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>37.91130145051002</v>
+        <v>47.23788206200278</v>
       </c>
       <c r="R18">
-        <v>37.91130145051002</v>
+        <v>425.140938558025</v>
       </c>
       <c r="S18">
-        <v>0.0004154905604504062</v>
+        <v>0.0004124881273142157</v>
       </c>
       <c r="T18">
-        <v>0.0004154905604504062</v>
+        <v>0.0004669193312285074</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H19">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I19">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J19">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>30.94430285800926</v>
+        <v>39.67089146259111</v>
       </c>
       <c r="R19">
-        <v>30.94430285800926</v>
+        <v>357.03802316332</v>
       </c>
       <c r="S19">
-        <v>0.0003391354357487616</v>
+        <v>0.0003464120535042449</v>
       </c>
       <c r="T19">
-        <v>0.0003391354357487616</v>
+        <v>0.0003921239755550211</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H20">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I20">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J20">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>34.17872754081957</v>
+        <v>40.83987762892889</v>
       </c>
       <c r="R20">
-        <v>34.17872754081957</v>
+        <v>367.55889866036</v>
       </c>
       <c r="S20">
-        <v>0.0003745832540187251</v>
+        <v>0.0003566198124798904</v>
       </c>
       <c r="T20">
-        <v>0.0003745832540187251</v>
+        <v>0.0004036787323556199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H21">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I21">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J21">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>13.47164807150792</v>
+        <v>17.52119057462417</v>
       </c>
       <c r="R21">
-        <v>13.47164807150792</v>
+        <v>105.127143447745</v>
       </c>
       <c r="S21">
-        <v>0.0001476431141444277</v>
+        <v>0.0001529976106667088</v>
       </c>
       <c r="T21">
-        <v>0.0001476431141444277</v>
+        <v>0.0001154579365588078</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H22">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I22">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J22">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>951.6863445133852</v>
+        <v>1315.555354383452</v>
       </c>
       <c r="R22">
-        <v>951.6863445133852</v>
+        <v>7893.332126300713</v>
       </c>
       <c r="S22">
-        <v>0.01043004796791394</v>
+        <v>0.01148762266258159</v>
       </c>
       <c r="T22">
-        <v>0.01043004796791394</v>
+        <v>0.008669006024395843</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H23">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I23">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J23">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>8300.484625894782</v>
+        <v>8663.769062118066</v>
       </c>
       <c r="R23">
-        <v>8300.484625894782</v>
+        <v>51982.61437270839</v>
       </c>
       <c r="S23">
-        <v>0.09096952299896861</v>
+        <v>0.07565330450728516</v>
       </c>
       <c r="T23">
-        <v>0.09096952299896861</v>
+        <v>0.05709092053270165</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H24">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I24">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J24">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>6775.096087567375</v>
+        <v>7275.928282921592</v>
       </c>
       <c r="R24">
-        <v>6775.096087567375</v>
+        <v>43655.56969752956</v>
       </c>
       <c r="S24">
-        <v>0.07425196083556908</v>
+        <v>0.06353447489359389</v>
       </c>
       <c r="T24">
-        <v>0.07425196083556908</v>
+        <v>0.04794558123879183</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H25">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I25">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J25">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>7483.256750116207</v>
+        <v>7490.328796659016</v>
       </c>
       <c r="R25">
-        <v>7483.256750116207</v>
+        <v>44941.9727799541</v>
       </c>
       <c r="S25">
-        <v>0.08201307847895682</v>
+        <v>0.065406651683626</v>
       </c>
       <c r="T25">
-        <v>0.08201307847895682</v>
+        <v>0.04935839852468579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H26">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I26">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J26">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>2949.548114273778</v>
+        <v>3213.513015521246</v>
       </c>
       <c r="R26">
-        <v>2949.548114273778</v>
+        <v>12854.05206208498</v>
       </c>
       <c r="S26">
-        <v>0.03232570110194843</v>
+        <v>0.0280608678461148</v>
       </c>
       <c r="T26">
-        <v>0.03232570110194843</v>
+        <v>0.01411721348868873</v>
       </c>
     </row>
   </sheetData>
